--- a/biology/Botanique/Jardin_(homonymie)/Jardin_(homonymie).xlsx
+++ b/biology/Botanique/Jardin_(homonymie)/Jardin_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -513,7 +525,9 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin est un espace cultivé de surface limitée, consacré à la culture de végétaux, parfois enclos.
 </t>
@@ -544,7 +558,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Jardin (Záhrada),  est un film du réalisateur slovaque Martin Šulík, sorti en 1994.</t>
         </is>
@@ -574,7 +590,9 @@
           <t>En littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Jardin, nouvelle de Dino Buzzati publiée en 1966.</t>
         </is>
@@ -604,7 +622,9 @@
           <t>En musique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardins, Vol. 1 est le 13e album studio de la chanteuse Nicole Rieu, paru en 2008.
 Jardins, Vol. 2 est le 16e album studio de la chanteuse Nicole Rieu, paru en 2014.
@@ -636,7 +656,9 @@
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Côté jardin, désigne le côté gauche de la scène, vu de la salle, et par opposition au côté cour.</t>
         </is>
@@ -666,7 +688,9 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le Jardin, nom de l'école philosophique installée à Athènes et créée par Épicure.</t>
         </is>
@@ -696,7 +720,9 @@
           <t>Psychologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jardin secret, domaine réservé des sentiments ou pensées intimes que l'on souhaite garder exclusivement pour soi et en soi.</t>
         </is>
@@ -726,7 +752,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jardin d'enfants, lieu de garde « collectif » destiné aux enfants en âge pré-scolaire ; le jardin est la deuxième année de l'école maternelle en Ontario.</t>
         </is>
@@ -756,7 +784,9 @@
           <t>Joaillerie et Gemmologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Un jardin est une inclusion dans une émeraude qui peut être considérée comme un défaut ou, au contraire, ajouter à la valeur de la pierre</t>
         </is>
@@ -786,9 +816,11 @@
           <t>Patronymie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Jardin est un patronyme français présent surtout dans le nord-ouest du pays, principalement en Normandie (Calvados et Orne) et dans la Sarthe[1]. Il est notamment porté par : 
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jardin est un patronyme français présent surtout dans le nord-ouest du pays, principalement en Normandie (Calvados et Orne) et dans la Sarthe. Il est notamment porté par : 
 Alexandre Jardin (né en 1965), écrivain et cinéaste français, fils de Pascal Jardin.
 Frédéric Jardin, réalisateur et scénariste français.
 Henri Jardin (1881-1946), athlète français.
@@ -798,23 +830,245 @@
 Pascal Jardin (1934-1980), écrivain et scénariste français, fils de Jean Jardin.
 Véronique Jardin (1966-2023), nageuse française.
 Xavier Jardin, historien et politologue français.
-Famille Du Jardin, une famille brugeoise.
-Jardin
-Jardin est un nom de lieu notamment porté  par :
- Canada
-Grand Jardin, municipalité de Terre-Neuve-et-Labrador, au Canada.
+Famille Du Jardin, une famille brugeoise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jardin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin est un nom de lieu notamment porté  par :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jardin</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Grand Jardin, municipalité de Terre-Neuve-et-Labrador, au Canada.
 Petit Jardin, municipalité de Terre-Neuve-et-Labrador, au Canada.
-Jardin Tiki, un restaurant au Québec, lié à la culture Tiki.
- France
-Jardin, commune française de l'Isère
+Jardin Tiki, un restaurant au Québec, lié à la culture Tiki.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jardin</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jardin, commune française de l'Isère
 Le Jardin, commune française de la Corrèze
-Le Jardin est un hameau de la commune belge de Sainte-Ode
-Jardín
-Jardín est un nom de lieu notamment porté  par :
- Colombie
-Jardín, ville de Colombie, située près de Medellín.
- Espagne
-Jardín, nécropole phénicienne dans la commune de Vélez-Málaga.</t>
+Le Jardin est un hameau de la commune belge de Sainte-Ode</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jardín</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardín est un nom de lieu notamment porté  par :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jardín</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colombie</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jardín, ville de Colombie, située près de Medellín.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Patronymie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Jardín</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jardín, nécropole phénicienne dans la commune de Vélez-Málaga.</t>
         </is>
       </c>
     </row>
